--- a/docs/StructureDefinition-LabObservationMicrobiologyVirologyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-LabObservationMicrobiologyVirologyDiagnosticReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LabObservationMicrobiologyVirologyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-LabObservationMicrobiologyVirologyDiagnosticReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LabObservationMicrobiologyVirologyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-LabObservationMicrobiologyVirologyDiagnosticReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LabObservationMicrobiologyVirologyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-LabObservationMicrobiologyVirologyDiagnosticReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LabObservationMicrobiologyVirologyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-LabObservationMicrobiologyVirologyDiagnosticReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -835,7 +835,8 @@
     <t>1690: reference based on MICROBIOLOGY - ORDERED TEST &gt; ORDERED TEST - CPRS ORDER # (63.05-.35 &gt; 63.5-3)</t>
   </si>
   <si>
-    <t>Micro.MicroOrderedTest.CPRSOrderIEN,SStaff.SMicroOrderedTest.CPRSOrderIEN</t>
+    <t>Micro.MicroOrderedTest.CPRSOrderIEN
+SStaff.SMicroOrderedTest.CPRSOrderIEN</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -872,7 +873,8 @@
     <t>1416: terminologyMaps using VF_DiagnosticReportLabStatus on MICROBIOLOGY - ORDERED TEST &gt; ORDERED TEST - DISPOSITION (63.05-.35 &gt; 63.5-10)</t>
   </si>
   <si>
-    <t>Micro.MicroOrderedTest.DispositionLabCodeIEN,SStaff.SMicroOrderedTest.DispositionLabCodeIEN</t>
+    <t>Micro.MicroOrderedTest.DispositionLabCodeIEN
+SStaff.SMicroOrderedTest.DispositionLabCodeIEN</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -1194,7 +1196,10 @@
     <t>Dim.LabChemTest.LabChemTestName</t>
   </si>
   <si>
-    <t>panel.test,med.prescription,lab.test,pharmacy (med).prescription</t>
+    <t>panel.test
+med.prescription
+lab.test
+pharmacy (med).prescription</t>
   </si>
   <si>
     <t>DiagnosticReport.subject</t>
@@ -1327,7 +1332,23 @@
     <t>1424: source value based on MICROBIOLOGY - DATE/TIME SPECIMEN TAKEN (63.05-.01)</t>
   </si>
   <si>
-    <t>Micro.AntibioticSensitivity.SpecimenTakenDateTime,Micro.AntibioticSensitivityComment.SpecimenTakenDateTime,Micro.BacteriologyReports.SpecimenTakenDateTime,Micro.MicroAntibioticLevel.SpecimenTakenDateTime,Micro.MicroAudit.SpecimenTakenDateTime,Micro.Microbiology.SpecimenTakenDateTime,Micro.MicroOrderedTest.SpecimenTakenDateTime,Micro.MicroSterilityResults.SpecimenTakenDateTime,Micro.MycobacteriologyReports.SpecimenTakenDateTime,Micro.Mycology.SpecimenTakenDateTime,Micro.MycologyReports.SpecimenTakenDateTime,Micro.Parasitology.SpecimenTakenDateTime,Micro.ParasitologyReports.SpecimenTakenDateTime,Micro.ParasitologyStage.SpecimenTakenDateTime,Micro.Virology.SpecimenTakenDateTime,Micro.VirologyReports.SpecimenTakenDateTime,SStaff.SMicroOrderedTest.SpecimenTakenDateTime</t>
+    <t>Micro.AntibioticSensitivity.SpecimenTakenDateTime
+Micro.AntibioticSensitivityComment.SpecimenTakenDateTime
+Micro.BacteriologyReports.SpecimenTakenDateTime
+Micro.MicroAntibioticLevel.SpecimenTakenDateTime
+Micro.MicroAudit.SpecimenTakenDateTime
+Micro.Microbiology.SpecimenTakenDateTime
+Micro.MicroOrderedTest.SpecimenTakenDateTime
+Micro.MicroSterilityResults.SpecimenTakenDateTime
+Micro.MycobacteriologyReports.SpecimenTakenDateTime
+Micro.Mycology.SpecimenTakenDateTime
+Micro.MycologyReports.SpecimenTakenDateTime
+Micro.Parasitology.SpecimenTakenDateTime
+Micro.ParasitologyReports.SpecimenTakenDateTime
+Micro.ParasitologyStage.SpecimenTakenDateTime
+Micro.Virology.SpecimenTakenDateTime
+Micro.VirologyReports.SpecimenTakenDateTime
+SStaff.SMicroOrderedTest.SpecimenTakenDateTime</t>
   </si>
   <si>
     <t>DiagnosticReport.issued</t>
@@ -1363,7 +1384,8 @@
     <t>Micro.Microbiology.ReportCompletedDateTime</t>
   </si>
   <si>
-    <t>Documents.ToTime,LabOrder.Result.ResultTime</t>
+    <t>Documents.ToTime
+LabOrder.Result.ResultTime</t>
   </si>
   <si>
     <t>OBR-22</t>
@@ -1430,7 +1452,9 @@
     <t>Micro.Microbiology.VerifyingStaffIEN</t>
   </si>
   <si>
-    <t>Documents.Clinician,Documents.Extension[DocumentExtension].CareProviders,LabOrder.Result.VerifiedBy</t>
+    <t>Documents.Clinician
+Documents.Extension[DocumentExtension].CareProviders
+LabOrder.Result.VerifiedBy</t>
   </si>
   <si>
     <t>DiagnosticReport.performer:va-at</t>
@@ -1449,7 +1473,8 @@
     <t>Micro.Microbiology.AccessioningInstitutionIEN</t>
   </si>
   <si>
-    <t>Documents.EnteredAt,LabOrder.Result.EnteredAt</t>
+    <t>Documents.EnteredAt
+LabOrder.Result.EnteredAt</t>
   </si>
   <si>
     <t>DiagnosticReport.resultsInterpreter</t>
@@ -2052,9 +2077,9 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="143.66796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="85.15234375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="52.56640625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="49.6875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="46.68359375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="147.17578125" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="104.53515625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-LabObservationMicrobiologyVirologyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-LabObservationMicrobiologyVirologyDiagnosticReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1223,10 +1223,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-lomvdr-50-1421:If PATIENT - LABORATORY REFERENCE (2-63) == LAB DATA – LRDFN (63-.01) then reference /Patient based on (2-) {true}</t>
-  </si>
-  <si>
-    <t>1421: reference based on PATIENT - (2-) if PATIENT - LABORATORY REFERENCE (2-63) == LAB DATA – LRDFN (63-.01)</t>
+lomvdr-50-1421:If {63&gt;63} then reference /Patient based on (2-) {true}</t>
+  </si>
+  <si>
+    <t>1421: reference based on PATIENT - (2-) if {63&gt;63}</t>
   </si>
   <si>
     <t>Event.subject</t>

--- a/docs/StructureDefinition-LabObservationMicrobiologyVirologyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-LabObservationMicrobiologyVirologyDiagnosticReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
